--- a/10000套报价.xlsx
+++ b/10000套报价.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC31EC7-A36D-4933-B4A1-331EDCA12494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF83DD7-2E2F-4170-99EB-73836C7BB259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88D12F28-6DAE-4239-884B-1E93235FE0F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>手柄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>纸盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsfd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +439,7 @@
   <dimension ref="E6:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,7 +606,7 @@
         <v>237.29999999999998</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F17">
         <f>SUM(F6:F15)</f>
         <v>127.5</v>
@@ -616,7 +620,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>9</v>
       </c>
@@ -631,6 +635,9 @@
       <c r="H18">
         <f>H17*1.1</f>
         <v>108.35000000000001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
